--- a/config.xlsx
+++ b/config.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\Python Projects\mis\wrldc_mis_state_files_ingestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8FB051-8428-4C71-B137-F5A464550663}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B11628-6ECE-45A4-AA7C-B7C7F6B21A8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="file_mapping" sheetId="1" r:id="rId1"/>
+    <sheet name="files_info" sheetId="1" r:id="rId1"/>
     <sheet name="meas_info" sheetId="2" r:id="rId2"/>
     <sheet name="region_meas_info" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="96">
   <si>
     <t>date_format</t>
   </si>
@@ -294,9 +294,6 @@
   </si>
   <si>
     <t>Z8,Z9,Z10,Z11</t>
-  </si>
-  <si>
-    <t>average</t>
   </si>
   <si>
     <t>goa</t>
@@ -656,21 +653,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -682,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -696,7 +693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -723,27 +720,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E411F2E-D996-44C6-8254-A1BF33A8F867}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
         <v>91</v>
-      </c>
-      <c r="B1" t="s">
-        <v>92</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -758,10 +755,10 @@
         <v>87</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -779,7 +776,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -797,7 +794,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -815,7 +812,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -833,7 +830,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -851,7 +848,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -869,7 +866,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -887,7 +884,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -905,7 +902,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -923,7 +920,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -941,7 +938,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -959,7 +956,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -977,7 +974,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -995,7 +992,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1013,7 +1010,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1031,7 +1028,7 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1049,7 +1046,7 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1067,7 +1064,7 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1085,7 +1082,7 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1103,7 +1100,7 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1121,7 +1118,7 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1139,7 +1136,7 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1157,7 +1154,7 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1175,7 +1172,7 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1193,7 +1190,7 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1210,7 +1207,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1227,7 +1224,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1244,7 +1241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1261,7 +1258,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1278,7 +1275,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1295,7 +1292,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1312,7 +1309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1329,7 +1326,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1346,7 +1343,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1363,7 +1360,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -1380,7 +1377,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1397,7 +1394,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1414,7 +1411,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1431,7 +1428,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1448,7 +1445,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1465,7 +1462,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1482,7 +1479,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1499,7 +1496,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -1516,7 +1513,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -1533,7 +1530,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -1550,7 +1547,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -1567,7 +1564,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -1584,7 +1581,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -1601,12 +1598,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
         <v>59</v>
@@ -1617,11 +1614,8 @@
       <c r="E50" t="s">
         <v>88</v>
       </c>
-      <c r="F50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1629,19 +1623,17 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F51" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1658,12 +1650,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -1671,7 +1663,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1679,7 +1671,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1687,7 +1679,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1695,7 +1687,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -1703,7 +1695,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -1711,7 +1703,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1719,7 +1711,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -1727,7 +1719,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -1735,7 +1727,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -1743,7 +1735,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -1751,7 +1743,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1759,7 +1751,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -1767,7 +1759,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1775,7 +1767,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1783,7 +1775,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -1791,7 +1783,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -1799,7 +1791,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -1807,7 +1799,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1815,7 +1807,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1823,7 +1815,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -1831,7 +1823,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1839,7 +1831,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1847,7 +1839,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -1855,7 +1847,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -1863,7 +1855,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1871,7 +1863,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -1879,7 +1871,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -1887,7 +1879,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -1895,7 +1887,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -1903,7 +1895,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -1911,7 +1903,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -1919,7 +1911,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -1927,7 +1919,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -1935,7 +1927,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -1943,7 +1935,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -1951,7 +1943,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -1959,7 +1951,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -1967,7 +1959,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -1975,7 +1967,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -1983,7 +1975,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -1991,7 +1983,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -1999,7 +1991,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -2007,7 +1999,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -2015,7 +2007,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -2023,7 +2015,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -2031,7 +2023,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -2039,7 +2031,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -2047,7 +2039,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>61</v>
       </c>

--- a/config.xlsx
+++ b/config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\Python Projects\mis\wrldc_mis_state_files_ingestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dheer\Desktop\wrldc\wrldc_mis_state_files_ingestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B11628-6ECE-45A4-AA7C-B7C7F6B21A8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA272D7-5659-46F0-9793-4C1C5EADBBB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,9 +35,6 @@
     <t>folder_location</t>
   </si>
   <si>
-    <t>\\10.2.100.63\g$\ETL\03_SCADA\OperationalData</t>
-  </si>
-  <si>
     <t>gujarat</t>
   </si>
   <si>
@@ -315,6 +312,9 @@
   </si>
   <si>
     <t>{{0}}*0.1</t>
+  </si>
+  <si>
+    <t>C:\Users\dheer\Desktop\wrldc\wrldc_mis_state_files_ingestion\stateFiles</t>
   </si>
 </sst>
 </file>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -667,13 +667,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -681,36 +681,36 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{61A03ABC-49B9-4D2B-A4AB-3F4F83C9519A}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{03D9E04C-71AE-4B29-9419-441D86750EE8}"/>
+    <hyperlink ref="B2" r:id="rId1" display="\\10.2.100.63\g$\ETL\03_SCADA\OperationalData" xr:uid="{61A03ABC-49B9-4D2B-A4AB-3F4F83C9519A}"/>
+    <hyperlink ref="B3" r:id="rId2" display="\\10.2.100.63\g$\ETL\03_SCADA\OperationalData" xr:uid="{03D9E04C-71AE-4B29-9419-441D86750EE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E411F2E-D996-44C6-8254-A1BF33A8F867}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -737,903 +737,903 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
         <v>90</v>
       </c>
-      <c r="B1" t="s">
-        <v>91</v>
-      </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1657,394 +1657,394 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dheer\Desktop\wrldc\wrldc_mis_state_files_ingestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA272D7-5659-46F0-9793-4C1C5EADBBB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5043D8F8-CE55-416E-9EDA-188695AC6656}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="files_info" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="97">
   <si>
     <t>date_format</t>
   </si>
@@ -290,9 +290,6 @@
     <t>aggregation_strategy</t>
   </si>
   <si>
-    <t>Z8,Z9,Z10,Z11</t>
-  </si>
-  <si>
     <t>goa</t>
   </si>
   <si>
@@ -305,9 +302,6 @@
     <t>demand_met_mu</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>equation</t>
   </si>
   <si>
@@ -315,6 +309,15 @@
   </si>
   <si>
     <t>C:\Users\dheer\Desktop\wrldc\wrldc_mis_state_files_ingestion\stateFiles</t>
+  </si>
+  <si>
+    <t>AD8,AD9,AD10,AD11</t>
+  </si>
+  <si>
+    <t>GOA_{{dt}}_uploaded.xlsx</t>
+  </si>
+  <si>
+    <t>E41</t>
   </si>
 </sst>
 </file>
@@ -651,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -667,7 +670,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -684,7 +687,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -698,12 +701,26 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -720,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E411F2E-D996-44C6-8254-A1BF33A8F867}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -737,10 +754,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
         <v>89</v>
-      </c>
-      <c r="B1" t="s">
-        <v>90</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -755,7 +772,7 @@
         <v>86</v>
       </c>
       <c r="G1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1600,10 +1617,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
         <v>58</v>
@@ -1612,7 +1629,7 @@
         <v>62</v>
       </c>
       <c r="E50" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -1623,17 +1640,17 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
